--- a/SO_Auslaenderstimmrecht_texte.xlsx
+++ b/SO_Auslaenderstimmrecht_texte.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="572">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2496" uniqueCount="575">
   <si>
     <t>Gemeinde_Nr</t>
   </si>
@@ -1403,331 +1403,340 @@
     <t>FALSE</t>
   </si>
   <si>
-    <t>Intro_Nein</t>
-  </si>
-  <si>
-    <t>Intro_Ja</t>
-  </si>
-  <si>
-    <t>Egerkingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 70,1 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Härkingen. 56,8 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Kestenholz hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 54,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Neuendorf. 63,5 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>91,6 Prozent der Stimmbürgerinnen und Stimmbürger von Niederbuchsiten haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Oberbuchsiten. 87,1 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Oensingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 67,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Wolfwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,3 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Aedermannsdorf hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 83,2 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Balsthal hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 89,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Herbetswil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 69,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Mit 62,3 Prozent Ja hat sich Holderbank SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Laupersdorf: 95,8 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 93,6 Prozent Ja hat sich Matzendorf für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Mümliswil-Ramiswil: 61,8 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Welschenrohr-Gänsbrunnen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Biezwil: 66,1 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Lüterkofen-Ichertswil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 73,1 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>61,8 Prozent der Stimmbürgerinnen und Stimmbürger von Lüterswil-Gächliwil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Messen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,5 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Schnottwil: 57,6 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Unterramsern. 69 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>52,2 Prozent der Stimmbürgerinnen und Stimmbürger von Lüsslingen-Nennigkofen haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>86,3 Prozent der Stimmbürgerinnen und Stimmbürger von Buchegg haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Bättwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 74 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Büren SO hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 73,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 90,5 Prozent Ja hat sich Dornach für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Gempen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,5 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 57,7 Prozent Ja hat sich Hochwald für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Hofstetten-Flüh hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 96,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Metzerlen-Mariastein hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 93,7 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Nuglar-St. Pantaleon: 60,6 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Rodersdorf: 59,7 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Seewen. 60,4 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Witterswil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 98,6 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 77,5 Prozent Ja hat sich Hauenstein-Ifenthal für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 53,8 Prozent Ja hat sich Kienberg für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Lostorf. 78,7 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 55,8 Prozent Ja hat sich Niedergösgen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Obergösgen. 51,1 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Stüsslingen: 50,4 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Trimbach: 50,6 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Winznau hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,8 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 51,4 Prozent Ja hat sich Wisen SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 52 Prozent Ja hat sich Erlinsbach SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 52,2 Prozent Ja hat sich Aeschi SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Biberist hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Bolken hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 59,7 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Deitingen: 64,6 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 53,5 Prozent Ja hat sich Derendingen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Etziken: 85,9 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Gerlafingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 53,1 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Halten. 84,7 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>70 Prozent der Stimmbürgerinnen und Stimmbürger von Horriwil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>92,3 Prozent der Stimmbürgerinnen und Stimmbürger von Hüniken haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>73,3 Prozent der Stimmbürgerinnen und Stimmbürger von Kriegstetten haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Lohn-Ammannsegg hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 93,6 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Luterbach hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 96,7 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Obergerlafingen. 93,6 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Oekingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 56,5 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>55,6 Prozent der Stimmbürgerinnen und Stimmbürger von Recherswil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>83,1 Prozent der Stimmbürgerinnen und Stimmbürger von Subingen haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Zuchwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 66,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Drei Höfe: 63,1 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Balm bei Günsberg hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 92,4 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Bellach. 54,4 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 56,9 Prozent Ja hat sich Bettlach für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Feldbrunnen-St. Niklaus hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Flumenthal: 70,8 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Grenchen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,8 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Günsberg hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 54,4 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Hubersdorf: 56,9 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>74,4 Prozent der Stimmbürgerinnen und Stimmbürger von Kammersrohr haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Mit 73,9 Prozent Ja hat sich Langendorf für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>62,5 Prozent der Stimmbürgerinnen und Stimmbürger von Lommiswil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Oberdorf SO: 69,8 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Riedholz hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 51,8 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Rüttenen. 58 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>93 Prozent der Stimmbürgerinnen und Stimmbürger von Selzach haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Mit 57,9 Prozent Ja hat sich Boningen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 66,6 Prozent Ja hat sich Däniken für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Dulliken hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 60,2 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Eppenberg-Wöschnau: 68 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Fulenbach hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 59,6 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 99,8 Prozent Ja hat sich Gretzenbach für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Gunzgen. 96,6 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>97,2 Prozent der Stimmbürgerinnen und Stimmbürger von Hägendorf haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Kappel SO. 69,3 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Olten hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 95,5 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Rickenbach SO: 67,7 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>50,2 Prozent der Stimmbürgerinnen und Stimmbürger von Schönenwerd haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Starrkirch-Wil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 92,8 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 55,6 Prozent Ja hat sich Walterswil SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Wangen bei Olten. 89,2 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Solothurn hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 75 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>54,6 Prozent der Stimmbürgerinnen und Stimmbürger von Bärschwil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt.</t>
-  </si>
-  <si>
-    <t>Beinwil SO hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 59,2 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Breitenbach: 56,3 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Büsserach hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 88,9 Prozent abgelehnt.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Erschwil. 63 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Mit 58,6 Prozent Ja hat sich Fehren für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Mit 70,8 Prozent Ja hat sich Grindel für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Himmelried. 72,1 Prozent haben sie verworfen.</t>
-  </si>
-  <si>
-    <t>Kleinlützel hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 61,6 Prozent angenommen.</t>
-  </si>
-  <si>
-    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Meltingen: 81,4 Prozent haben das Begehren abgelehnt.</t>
-  </si>
-  <si>
-    <t>Mit 60,8 Prozent Ja hat sich Nunningen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen.</t>
-  </si>
-  <si>
-    <t>Zullwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 98 Prozent angenommen.</t>
+    <t>Intro_Nein;KantonPhrase_Nein_Ja</t>
+  </si>
+  <si>
+    <t>Intro_Ja;KantonPhrase_Ja_Ja</t>
+  </si>
+  <si>
+    <t>Intro_Nein;KantonPhrase_Highest_No_Kant</t>
+  </si>
+  <si>
+    <t>Intro_Ja;KantonPhrase_Highest_Yes_Kant</t>
+  </si>
+  <si>
+    <t>Egerkingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 70,1 Prozent abgelehnt. Egerkingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Härkingen. 56,8 Prozent haben sie verworfen. Härkingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Kestenholz hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 54,4 Prozent abgelehnt. Kestenholz hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Neuendorf. 63,5 Prozent haben sie verworfen. Neuendorf hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>91,6 Prozent der Stimmbürgerinnen und Stimmbürger von Niederbuchsiten haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Niederbuchsiten hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Oberbuchsiten. 87,1 Prozent haben sie verworfen. Oberbuchsiten hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Oensingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 67,3 Prozent abgelehnt. Oensingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Wolfwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,3 Prozent abgelehnt. Wolfwil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Aedermannsdorf hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 83,2 Prozent angenommen. Aedermannsdorf hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Balsthal hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 89,4 Prozent abgelehnt. Balsthal hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Herbetswil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 69,4 Prozent angenommen. Herbetswil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 62,3 Prozent Ja hat sich Holderbank SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Holderbank SO hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Laupersdorf: 95,8 Prozent haben das Begehren abgelehnt. Laupersdorf hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 93,6 Prozent Ja hat sich Matzendorf für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Matzendorf hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Mümliswil-Ramiswil: 61,8 Prozent haben das Begehren abgelehnt. Mümliswil-Ramiswil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Welschenrohr-Gänsbrunnen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,6 Prozent angenommen. Welschenrohr-Gänsbrunnen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Biezwil: 66,1 Prozent haben das Begehren abgelehnt. Biezwil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Lüterkofen-Ichertswil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 73,1 Prozent abgelehnt. Lüterkofen-Ichertswil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>61,8 Prozent der Stimmbürgerinnen und Stimmbürger von Lüterswil-Gächliwil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Lüterswil-Gächliwil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Messen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,5 Prozent abgelehnt. Messen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Schnottwil: 57,6 Prozent haben das Begehren abgelehnt. Schnottwil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Unterramsern. 69 Prozent haben sie verworfen. Unterramsern hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>52,2 Prozent der Stimmbürgerinnen und Stimmbürger von Lüsslingen-Nennigkofen haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Lüsslingen-Nennigkofen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>86,3 Prozent der Stimmbürgerinnen und Stimmbürger von Buchegg haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Buchegg hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Bättwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 74 Prozent angenommen. Bättwil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Büren SO hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 73,4 Prozent abgelehnt. Büren SO hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 90,5 Prozent Ja hat sich Dornach für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Dornach hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Gempen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,5 Prozent abgelehnt. Gempen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 57,7 Prozent Ja hat sich Hochwald für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Hochwald hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Hofstetten-Flüh hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 96,9 Prozent abgelehnt. Hofstetten-Flüh hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Metzerlen-Mariastein hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 93,7 Prozent angenommen. Metzerlen-Mariastein hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Nuglar-St. Pantaleon: 60,6 Prozent haben das Begehren abgelehnt. Nuglar-St. Pantaleon hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Rodersdorf: 59,7 Prozent haben das Begehren abgelehnt. Rodersdorf hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Seewen. 60,4 Prozent haben sie verworfen. Seewen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Witterswil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 98,6 Prozent abgelehnt. Witterswil hat damit bei dieser Vorlage den höchsten Nein-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Mit 77,5 Prozent Ja hat sich Hauenstein-Ifenthal für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Hauenstein-Ifenthal hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 53,8 Prozent Ja hat sich Kienberg für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Kienberg hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Lostorf. 78,7 Prozent haben sie verworfen. Lostorf hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 55,8 Prozent Ja hat sich Niedergösgen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Niedergösgen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Obergösgen. 51,1 Prozent haben sie verworfen. Obergösgen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Stüsslingen: 50,4 Prozent haben das Begehren abgelehnt. Stüsslingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Trimbach: 50,6 Prozent haben das Begehren abgelehnt. Trimbach hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Winznau hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,8 Prozent abgelehnt. Winznau hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 51,4 Prozent Ja hat sich Wisen SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Wisen SO hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 52 Prozent Ja hat sich Erlinsbach SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Erlinsbach SO hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 52,2 Prozent Ja hat sich Aeschi SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Aeschi SO hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Biberist hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,9 Prozent abgelehnt. Biberist hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Bolken hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 59,7 Prozent angenommen. Bolken hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Deitingen: 64,6 Prozent haben das Begehren abgelehnt. Deitingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 53,5 Prozent Ja hat sich Derendingen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Derendingen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Etziken: 85,9 Prozent haben das Begehren abgelehnt. Etziken hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Gerlafingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 53,1 Prozent abgelehnt. Gerlafingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Halten. 84,7 Prozent haben sie verworfen. Halten hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>70 Prozent der Stimmbürgerinnen und Stimmbürger von Horriwil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Horriwil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>92,3 Prozent der Stimmbürgerinnen und Stimmbürger von Hüniken haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Hüniken hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>73,3 Prozent der Stimmbürgerinnen und Stimmbürger von Kriegstetten haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Kriegstetten hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Lohn-Ammannsegg hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 93,6 Prozent abgelehnt. Lohn-Ammannsegg hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Luterbach hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 96,7 Prozent angenommen. Luterbach hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Obergerlafingen. 93,6 Prozent haben sie verworfen. Obergerlafingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Oekingen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 56,5 Prozent abgelehnt. Oekingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>55,6 Prozent der Stimmbürgerinnen und Stimmbürger von Recherswil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Recherswil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>83,1 Prozent der Stimmbürgerinnen und Stimmbürger von Subingen haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Subingen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Zuchwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 66,9 Prozent abgelehnt. Zuchwil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Drei Höfe: 63,1 Prozent haben das Begehren abgelehnt. Drei Höfe hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Balm bei Günsberg hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 92,4 Prozent abgelehnt. Balm bei Günsberg hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Bellach. 54,4 Prozent haben sie verworfen. Bellach hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 56,9 Prozent Ja hat sich Bettlach für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Bettlach hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Feldbrunnen-St. Niklaus hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 58,4 Prozent angenommen. Feldbrunnen-St. Niklaus hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Flumenthal: 70,8 Prozent haben das Begehren abgelehnt. Flumenthal hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Grenchen hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 71,8 Prozent angenommen. Grenchen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Günsberg hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 54,4 Prozent angenommen. Günsberg hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Hubersdorf: 56,9 Prozent haben das Begehren abgelehnt. Hubersdorf hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>74,4 Prozent der Stimmbürgerinnen und Stimmbürger von Kammersrohr haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Kammersrohr hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 73,9 Prozent Ja hat sich Langendorf für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Langendorf hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>62,5 Prozent der Stimmbürgerinnen und Stimmbürger von Lommiswil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Lommiswil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Oberdorf SO: 69,8 Prozent haben das Begehren abgelehnt. Oberdorf SO hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Riedholz hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 51,8 Prozent angenommen. Riedholz hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Rüttenen. 58 Prozent haben sie verworfen. Rüttenen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>93 Prozent der Stimmbürgerinnen und Stimmbürger von Selzach haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Selzach hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 57,9 Prozent Ja hat sich Boningen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Boningen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 66,6 Prozent Ja hat sich Däniken für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Däniken hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Dulliken hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 60,2 Prozent abgelehnt. Dulliken hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Eppenberg-Wöschnau: 68 Prozent haben das Begehren abgelehnt. Eppenberg-Wöschnau hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Fulenbach hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 59,6 Prozent abgelehnt. Fulenbach hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 99,8 Prozent Ja hat sich Gretzenbach für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Gretzenbach hat damit bei dieser Vorlage den höchsten Ja-Anteil im Kanton.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Gunzgen. 96,6 Prozent haben sie verworfen. Gunzgen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>97,2 Prozent der Stimmbürgerinnen und Stimmbürger von Hägendorf haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Hägendorf hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Kappel SO. 69,3 Prozent haben sie verworfen. Kappel SO hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Olten hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 95,5 Prozent angenommen. Olten hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Rickenbach SO: 67,7 Prozent haben das Begehren abgelehnt. Rickenbach SO hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>50,2 Prozent der Stimmbürgerinnen und Stimmbürger von Schönenwerd haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Schönenwerd hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Starrkirch-Wil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 92,8 Prozent abgelehnt. Starrkirch-Wil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 55,6 Prozent Ja hat sich Walterswil SO für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Walterswil SO hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Wangen bei Olten. 89,2 Prozent haben sie verworfen. Wangen bei Olten hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Solothurn hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 75 Prozent abgelehnt. Solothurn hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>54,6 Prozent der Stimmbürgerinnen und Stimmbürger von Bärschwil haben dem Ausländerstimm- und wahlrecht auf kommunaler Ebene zugestimmt. Bärschwil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Beinwil SO hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 59,2 Prozent abgelehnt. Beinwil SO hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Breitenbach: 56,3 Prozent haben das Begehren abgelehnt. Breitenbach hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Büsserach hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 88,9 Prozent abgelehnt. Büsserach hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Erschwil. 63 Prozent haben sie verworfen. Erschwil hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 58,6 Prozent Ja hat sich Fehren für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Fehren hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 70,8 Prozent Ja hat sich Grindel für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Grindel hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Keine Mehrheit für das Ausländerstimm- und wahlrecht auf kommunaler Ebene in Himmelried. 72,1 Prozent haben sie verworfen. Himmelried hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Kleinlützel hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 61,6 Prozent angenommen. Kleinlützel hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Nein zum Ausländerstimm- und wahlrecht auf kommunaler Ebene in Meltingen: 81,4 Prozent haben das Begehren abgelehnt. Meltingen hat damit anders abgestimmt als der gesamte Kanton Graubünden, der die Vorlage angenommen hat.</t>
+  </si>
+  <si>
+    <t>Mit 60,8 Prozent Ja hat sich Nunningen für das Ausländerstimm- und wahlrecht auf kommunaler Ebene ausgesprochen. Nunningen hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>Zullwil hat das Ausländerstimm- und wahlrecht auf kommunaler Ebene mit 98 Prozent angenommen. Zullwil hat damit gleich abgestimmt wie der Kanton Graubünden, der die Vorlage auch angenommen hat.</t>
+  </si>
+  <si>
+    <t>NA NA</t>
   </si>
 </sst>
 </file>
@@ -1984,13 +1993,13 @@
         <v>463</v>
       </c>
       <c r="AG2" t="s">
-        <v>465</v>
-      </c>
-      <c r="AH2" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI2" t="e">
-        <v>#N/A</v>
+        <v>467</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>574</v>
       </c>
       <c r="AJ2" t="n">
         <v>29.884237234379956</v>
@@ -2094,13 +2103,13 @@
         <v>463</v>
       </c>
       <c r="AG3" t="s">
-        <v>466</v>
-      </c>
-      <c r="AH3" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI3" t="e">
-        <v>#N/A</v>
+        <v>468</v>
+      </c>
+      <c r="AH3" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>574</v>
       </c>
       <c r="AJ3" t="n">
         <v>43.22443784471786</v>
@@ -2204,13 +2213,13 @@
         <v>463</v>
       </c>
       <c r="AG4" t="s">
-        <v>467</v>
-      </c>
-      <c r="AH4" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI4" t="e">
-        <v>#N/A</v>
+        <v>469</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>574</v>
       </c>
       <c r="AJ4" t="n">
         <v>45.58235607675906</v>
@@ -2314,13 +2323,13 @@
         <v>463</v>
       </c>
       <c r="AG5" t="s">
-        <v>468</v>
-      </c>
-      <c r="AH5" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI5" t="e">
-        <v>#N/A</v>
+        <v>470</v>
+      </c>
+      <c r="AH5" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>574</v>
       </c>
       <c r="AJ5" t="n">
         <v>36.48851148851149</v>
@@ -2424,13 +2433,13 @@
         <v>464</v>
       </c>
       <c r="AG6" t="s">
-        <v>469</v>
-      </c>
-      <c r="AH6" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI6" t="e">
-        <v>#N/A</v>
+        <v>471</v>
+      </c>
+      <c r="AH6" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI6" t="s">
+        <v>574</v>
       </c>
       <c r="AJ6" t="n">
         <v>91.6008537886873</v>
@@ -2534,13 +2543,13 @@
         <v>463</v>
       </c>
       <c r="AG7" t="s">
-        <v>470</v>
-      </c>
-      <c r="AH7" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI7" t="e">
-        <v>#N/A</v>
+        <v>472</v>
+      </c>
+      <c r="AH7" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI7" t="s">
+        <v>574</v>
       </c>
       <c r="AJ7" t="n">
         <v>12.856584603360687</v>
@@ -2644,13 +2653,13 @@
         <v>463</v>
       </c>
       <c r="AG8" t="s">
-        <v>471</v>
-      </c>
-      <c r="AH8" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI8" t="e">
-        <v>#N/A</v>
+        <v>473</v>
+      </c>
+      <c r="AH8" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI8" t="s">
+        <v>574</v>
       </c>
       <c r="AJ8" t="n">
         <v>32.679909391880116</v>
@@ -2754,13 +2763,13 @@
         <v>463</v>
       </c>
       <c r="AG9" t="s">
-        <v>472</v>
-      </c>
-      <c r="AH9" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI9" t="e">
-        <v>#N/A</v>
+        <v>474</v>
+      </c>
+      <c r="AH9" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI9" t="s">
+        <v>574</v>
       </c>
       <c r="AJ9" t="n">
         <v>41.69726967906754</v>
@@ -2864,13 +2873,13 @@
         <v>464</v>
       </c>
       <c r="AG10" t="s">
-        <v>473</v>
-      </c>
-      <c r="AH10" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI10" t="e">
-        <v>#N/A</v>
+        <v>475</v>
+      </c>
+      <c r="AH10" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI10" t="s">
+        <v>574</v>
       </c>
       <c r="AJ10" t="n">
         <v>83.22569534142771</v>
@@ -2974,13 +2983,13 @@
         <v>463</v>
       </c>
       <c r="AG11" t="s">
-        <v>474</v>
-      </c>
-      <c r="AH11" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI11" t="e">
-        <v>#N/A</v>
+        <v>476</v>
+      </c>
+      <c r="AH11" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI11" t="s">
+        <v>574</v>
       </c>
       <c r="AJ11" t="n">
         <v>10.617597292724197</v>
@@ -3084,13 +3093,13 @@
         <v>464</v>
       </c>
       <c r="AG12" t="s">
-        <v>475</v>
-      </c>
-      <c r="AH12" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI12" t="e">
-        <v>#N/A</v>
+        <v>477</v>
+      </c>
+      <c r="AH12" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI12" t="s">
+        <v>574</v>
       </c>
       <c r="AJ12" t="n">
         <v>69.41576857629042</v>
@@ -3194,13 +3203,13 @@
         <v>464</v>
       </c>
       <c r="AG13" t="s">
-        <v>476</v>
-      </c>
-      <c r="AH13" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI13" t="e">
-        <v>#N/A</v>
+        <v>478</v>
+      </c>
+      <c r="AH13" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI13" t="s">
+        <v>574</v>
       </c>
       <c r="AJ13" t="n">
         <v>62.2772748928061</v>
@@ -3304,13 +3313,13 @@
         <v>463</v>
       </c>
       <c r="AG14" t="s">
-        <v>477</v>
-      </c>
-      <c r="AH14" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI14" t="e">
-        <v>#N/A</v>
+        <v>479</v>
+      </c>
+      <c r="AH14" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI14" t="s">
+        <v>574</v>
       </c>
       <c r="AJ14" t="n">
         <v>4.2204118578864</v>
@@ -3414,13 +3423,13 @@
         <v>464</v>
       </c>
       <c r="AG15" t="s">
-        <v>478</v>
-      </c>
-      <c r="AH15" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI15" t="e">
-        <v>#N/A</v>
+        <v>480</v>
+      </c>
+      <c r="AH15" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI15" t="s">
+        <v>574</v>
       </c>
       <c r="AJ15" t="n">
         <v>93.61529548088065</v>
@@ -3524,13 +3533,13 @@
         <v>463</v>
       </c>
       <c r="AG16" t="s">
-        <v>479</v>
-      </c>
-      <c r="AH16" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI16" t="e">
-        <v>#N/A</v>
+        <v>481</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>574</v>
       </c>
       <c r="AJ16" t="n">
         <v>38.195945945945944</v>
@@ -3634,13 +3643,13 @@
         <v>464</v>
       </c>
       <c r="AG17" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH17" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI17" t="e">
-        <v>#N/A</v>
+        <v>482</v>
+      </c>
+      <c r="AH17" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI17" t="s">
+        <v>574</v>
       </c>
       <c r="AJ17" t="n">
         <v>71.56254309750379</v>
@@ -3744,13 +3753,13 @@
         <v>463</v>
       </c>
       <c r="AG18" t="s">
-        <v>481</v>
-      </c>
-      <c r="AH18" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI18" t="e">
-        <v>#N/A</v>
+        <v>483</v>
+      </c>
+      <c r="AH18" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI18" t="s">
+        <v>574</v>
       </c>
       <c r="AJ18" t="n">
         <v>33.894196492228716</v>
@@ -3854,13 +3863,13 @@
         <v>463</v>
       </c>
       <c r="AG19" t="s">
-        <v>482</v>
-      </c>
-      <c r="AH19" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI19" t="e">
-        <v>#N/A</v>
+        <v>484</v>
+      </c>
+      <c r="AH19" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI19" t="s">
+        <v>574</v>
       </c>
       <c r="AJ19" t="n">
         <v>26.918591089339866</v>
@@ -3964,13 +3973,13 @@
         <v>464</v>
       </c>
       <c r="AG20" t="s">
-        <v>483</v>
-      </c>
-      <c r="AH20" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI20" t="e">
-        <v>#N/A</v>
+        <v>485</v>
+      </c>
+      <c r="AH20" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI20" t="s">
+        <v>574</v>
       </c>
       <c r="AJ20" t="n">
         <v>61.77810165786118</v>
@@ -4074,13 +4083,13 @@
         <v>463</v>
       </c>
       <c r="AG21" t="s">
-        <v>484</v>
-      </c>
-      <c r="AH21" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI21" t="e">
-        <v>#N/A</v>
+        <v>486</v>
+      </c>
+      <c r="AH21" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI21" t="s">
+        <v>574</v>
       </c>
       <c r="AJ21" t="n">
         <v>28.488022666781145</v>
@@ -4184,13 +4193,13 @@
         <v>463</v>
       </c>
       <c r="AG22" t="s">
-        <v>485</v>
-      </c>
-      <c r="AH22" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI22" t="e">
-        <v>#N/A</v>
+        <v>487</v>
+      </c>
+      <c r="AH22" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI22" t="s">
+        <v>574</v>
       </c>
       <c r="AJ22" t="n">
         <v>42.44090159428257</v>
@@ -4294,13 +4303,13 @@
         <v>463</v>
       </c>
       <c r="AG23" t="s">
-        <v>486</v>
-      </c>
-      <c r="AH23" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI23" t="e">
-        <v>#N/A</v>
+        <v>488</v>
+      </c>
+      <c r="AH23" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI23" t="s">
+        <v>574</v>
       </c>
       <c r="AJ23" t="n">
         <v>30.986139875736818</v>
@@ -4404,13 +4413,13 @@
         <v>464</v>
       </c>
       <c r="AG24" t="s">
-        <v>487</v>
-      </c>
-      <c r="AH24" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI24" t="e">
-        <v>#N/A</v>
+        <v>489</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>574</v>
       </c>
       <c r="AJ24" t="n">
         <v>52.16249827276496</v>
@@ -4514,13 +4523,13 @@
         <v>464</v>
       </c>
       <c r="AG25" t="s">
-        <v>488</v>
-      </c>
-      <c r="AH25" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI25" t="e">
-        <v>#N/A</v>
+        <v>490</v>
+      </c>
+      <c r="AH25" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI25" t="s">
+        <v>574</v>
       </c>
       <c r="AJ25" t="n">
         <v>86.27821919535882</v>
@@ -4624,13 +4633,13 @@
         <v>464</v>
       </c>
       <c r="AG26" t="s">
-        <v>489</v>
-      </c>
-      <c r="AH26" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI26" t="e">
-        <v>#N/A</v>
+        <v>491</v>
+      </c>
+      <c r="AH26" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI26" t="s">
+        <v>574</v>
       </c>
       <c r="AJ26" t="n">
         <v>73.97034596375617</v>
@@ -4734,13 +4743,13 @@
         <v>463</v>
       </c>
       <c r="AG27" t="s">
-        <v>490</v>
-      </c>
-      <c r="AH27" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI27" t="e">
-        <v>#N/A</v>
+        <v>492</v>
+      </c>
+      <c r="AH27" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI27" t="s">
+        <v>574</v>
       </c>
       <c r="AJ27" t="n">
         <v>26.56561627443159</v>
@@ -4844,13 +4853,13 @@
         <v>464</v>
       </c>
       <c r="AG28" t="s">
-        <v>491</v>
-      </c>
-      <c r="AH28" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI28" t="e">
-        <v>#N/A</v>
+        <v>493</v>
+      </c>
+      <c r="AH28" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI28" t="s">
+        <v>574</v>
       </c>
       <c r="AJ28" t="n">
         <v>90.46837708830549</v>
@@ -4954,13 +4963,13 @@
         <v>463</v>
       </c>
       <c r="AG29" t="s">
-        <v>492</v>
-      </c>
-      <c r="AH29" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI29" t="e">
-        <v>#N/A</v>
+        <v>494</v>
+      </c>
+      <c r="AH29" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI29" t="s">
+        <v>574</v>
       </c>
       <c r="AJ29" t="n">
         <v>41.51053864168618</v>
@@ -5064,13 +5073,13 @@
         <v>464</v>
       </c>
       <c r="AG30" t="s">
-        <v>493</v>
-      </c>
-      <c r="AH30" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI30" t="e">
-        <v>#N/A</v>
+        <v>495</v>
+      </c>
+      <c r="AH30" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI30" t="s">
+        <v>574</v>
       </c>
       <c r="AJ30" t="n">
         <v>57.65605548639516</v>
@@ -5174,13 +5183,13 @@
         <v>463</v>
       </c>
       <c r="AG31" t="s">
-        <v>494</v>
-      </c>
-      <c r="AH31" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI31" t="e">
-        <v>#N/A</v>
+        <v>496</v>
+      </c>
+      <c r="AH31" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI31" t="s">
+        <v>574</v>
       </c>
       <c r="AJ31" t="n">
         <v>3.111495246326707</v>
@@ -5284,13 +5293,13 @@
         <v>464</v>
       </c>
       <c r="AG32" t="s">
-        <v>495</v>
-      </c>
-      <c r="AH32" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI32" t="e">
-        <v>#N/A</v>
+        <v>497</v>
+      </c>
+      <c r="AH32" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI32" t="s">
+        <v>574</v>
       </c>
       <c r="AJ32" t="n">
         <v>93.73604287628406</v>
@@ -5394,13 +5403,13 @@
         <v>463</v>
       </c>
       <c r="AG33" t="s">
-        <v>496</v>
-      </c>
-      <c r="AH33" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI33" t="e">
-        <v>#N/A</v>
+        <v>498</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>574</v>
       </c>
       <c r="AJ33" t="n">
         <v>39.40956905327452</v>
@@ -5504,13 +5513,13 @@
         <v>463</v>
       </c>
       <c r="AG34" t="s">
-        <v>497</v>
-      </c>
-      <c r="AH34" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI34" t="e">
-        <v>#N/A</v>
+        <v>499</v>
+      </c>
+      <c r="AH34" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI34" t="s">
+        <v>574</v>
       </c>
       <c r="AJ34" t="n">
         <v>40.28287061288633</v>
@@ -5614,13 +5623,13 @@
         <v>463</v>
       </c>
       <c r="AG35" t="s">
-        <v>498</v>
-      </c>
-      <c r="AH35" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI35" t="e">
-        <v>#N/A</v>
+        <v>500</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>574</v>
       </c>
       <c r="AJ35" t="n">
         <v>39.64821442168583</v>
@@ -5718,19 +5727,19 @@
         <v>462</v>
       </c>
       <c r="AE36" t="s">
-        <v>462</v>
+        <v>142</v>
       </c>
       <c r="AF36" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG36" t="s">
-        <v>499</v>
-      </c>
-      <c r="AH36" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI36" t="e">
-        <v>#N/A</v>
+        <v>501</v>
+      </c>
+      <c r="AH36" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI36" t="s">
+        <v>574</v>
       </c>
       <c r="AJ36" t="n">
         <v>1.4161440420797087</v>
@@ -5834,13 +5843,13 @@
         <v>464</v>
       </c>
       <c r="AG37" t="s">
-        <v>500</v>
-      </c>
-      <c r="AH37" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI37" t="e">
-        <v>#N/A</v>
+        <v>502</v>
+      </c>
+      <c r="AH37" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI37" t="s">
+        <v>574</v>
       </c>
       <c r="AJ37" t="n">
         <v>77.49737118822293</v>
@@ -5944,13 +5953,13 @@
         <v>464</v>
       </c>
       <c r="AG38" t="s">
-        <v>501</v>
-      </c>
-      <c r="AH38" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI38" t="e">
-        <v>#N/A</v>
+        <v>503</v>
+      </c>
+      <c r="AH38" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI38" t="s">
+        <v>574</v>
       </c>
       <c r="AJ38" t="n">
         <v>53.763440860215056</v>
@@ -6054,13 +6063,13 @@
         <v>463</v>
       </c>
       <c r="AG39" t="s">
-        <v>502</v>
-      </c>
-      <c r="AH39" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI39" t="e">
-        <v>#N/A</v>
+        <v>504</v>
+      </c>
+      <c r="AH39" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI39" t="s">
+        <v>574</v>
       </c>
       <c r="AJ39" t="n">
         <v>21.339871865854622</v>
@@ -6164,13 +6173,13 @@
         <v>464</v>
       </c>
       <c r="AG40" t="s">
-        <v>503</v>
-      </c>
-      <c r="AH40" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI40" t="e">
-        <v>#N/A</v>
+        <v>505</v>
+      </c>
+      <c r="AH40" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI40" t="s">
+        <v>574</v>
       </c>
       <c r="AJ40" t="n">
         <v>55.82974137931034</v>
@@ -6274,13 +6283,13 @@
         <v>463</v>
       </c>
       <c r="AG41" t="s">
-        <v>504</v>
-      </c>
-      <c r="AH41" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI41" t="e">
-        <v>#N/A</v>
+        <v>506</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>574</v>
       </c>
       <c r="AJ41" t="n">
         <v>48.93088015912481</v>
@@ -6384,13 +6393,13 @@
         <v>463</v>
       </c>
       <c r="AG42" t="s">
-        <v>505</v>
-      </c>
-      <c r="AH42" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI42" t="e">
-        <v>#N/A</v>
+        <v>507</v>
+      </c>
+      <c r="AH42" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI42" t="s">
+        <v>574</v>
       </c>
       <c r="AJ42" t="n">
         <v>49.63444763777542</v>
@@ -6494,13 +6503,13 @@
         <v>463</v>
       </c>
       <c r="AG43" t="s">
-        <v>506</v>
-      </c>
-      <c r="AH43" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI43" t="e">
-        <v>#N/A</v>
+        <v>508</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>574</v>
       </c>
       <c r="AJ43" t="n">
         <v>49.42799101892441</v>
@@ -6604,13 +6613,13 @@
         <v>463</v>
       </c>
       <c r="AG44" t="s">
-        <v>507</v>
-      </c>
-      <c r="AH44" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI44" t="e">
-        <v>#N/A</v>
+        <v>509</v>
+      </c>
+      <c r="AH44" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI44" t="s">
+        <v>574</v>
       </c>
       <c r="AJ44" t="n">
         <v>41.15767045454545</v>
@@ -6714,13 +6723,13 @@
         <v>464</v>
       </c>
       <c r="AG45" t="s">
-        <v>508</v>
-      </c>
-      <c r="AH45" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI45" t="e">
-        <v>#N/A</v>
+        <v>510</v>
+      </c>
+      <c r="AH45" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI45" t="s">
+        <v>574</v>
       </c>
       <c r="AJ45" t="n">
         <v>51.43786374529271</v>
@@ -6824,13 +6833,13 @@
         <v>464</v>
       </c>
       <c r="AG46" t="s">
-        <v>509</v>
-      </c>
-      <c r="AH46" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI46" t="e">
-        <v>#N/A</v>
+        <v>511</v>
+      </c>
+      <c r="AH46" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI46" t="s">
+        <v>574</v>
       </c>
       <c r="AJ46" t="n">
         <v>51.9910263600673</v>
@@ -6934,13 +6943,13 @@
         <v>464</v>
       </c>
       <c r="AG47" t="s">
-        <v>510</v>
-      </c>
-      <c r="AH47" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI47" t="e">
-        <v>#N/A</v>
+        <v>512</v>
+      </c>
+      <c r="AH47" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI47" t="s">
+        <v>574</v>
       </c>
       <c r="AJ47" t="n">
         <v>52.213032809233844</v>
@@ -7044,13 +7053,13 @@
         <v>463</v>
       </c>
       <c r="AG48" t="s">
-        <v>511</v>
-      </c>
-      <c r="AH48" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI48" t="e">
-        <v>#N/A</v>
+        <v>513</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>574</v>
       </c>
       <c r="AJ48" t="n">
         <v>28.053392658509456</v>
@@ -7154,13 +7163,13 @@
         <v>464</v>
       </c>
       <c r="AG49" t="s">
-        <v>512</v>
-      </c>
-      <c r="AH49" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI49" t="e">
-        <v>#N/A</v>
+        <v>514</v>
+      </c>
+      <c r="AH49" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI49" t="s">
+        <v>574</v>
       </c>
       <c r="AJ49" t="n">
         <v>59.74047579437698</v>
@@ -7264,13 +7273,13 @@
         <v>463</v>
       </c>
       <c r="AG50" t="s">
-        <v>513</v>
-      </c>
-      <c r="AH50" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI50" t="e">
-        <v>#N/A</v>
+        <v>515</v>
+      </c>
+      <c r="AH50" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI50" t="s">
+        <v>574</v>
       </c>
       <c r="AJ50" t="n">
         <v>35.42556219755195</v>
@@ -7374,13 +7383,13 @@
         <v>464</v>
       </c>
       <c r="AG51" t="s">
-        <v>514</v>
-      </c>
-      <c r="AH51" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI51" t="e">
-        <v>#N/A</v>
+        <v>516</v>
+      </c>
+      <c r="AH51" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI51" t="s">
+        <v>574</v>
       </c>
       <c r="AJ51" t="n">
         <v>53.46201652409154</v>
@@ -7484,13 +7493,13 @@
         <v>463</v>
       </c>
       <c r="AG52" t="s">
-        <v>515</v>
-      </c>
-      <c r="AH52" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI52" t="e">
-        <v>#N/A</v>
+        <v>517</v>
+      </c>
+      <c r="AH52" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI52" t="s">
+        <v>574</v>
       </c>
       <c r="AJ52" t="n">
         <v>14.081353402164448</v>
@@ -7594,13 +7603,13 @@
         <v>463</v>
       </c>
       <c r="AG53" t="s">
-        <v>516</v>
-      </c>
-      <c r="AH53" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI53" t="e">
-        <v>#N/A</v>
+        <v>518</v>
+      </c>
+      <c r="AH53" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI53" t="s">
+        <v>574</v>
       </c>
       <c r="AJ53" t="n">
         <v>46.897100424328144</v>
@@ -7704,13 +7713,13 @@
         <v>463</v>
       </c>
       <c r="AG54" t="s">
-        <v>517</v>
-      </c>
-      <c r="AH54" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI54" t="e">
-        <v>#N/A</v>
+        <v>519</v>
+      </c>
+      <c r="AH54" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI54" t="s">
+        <v>574</v>
       </c>
       <c r="AJ54" t="n">
         <v>15.324246179264767</v>
@@ -7814,13 +7823,13 @@
         <v>464</v>
       </c>
       <c r="AG55" t="s">
-        <v>518</v>
-      </c>
-      <c r="AH55" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI55" t="e">
-        <v>#N/A</v>
+        <v>520</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>574</v>
       </c>
       <c r="AJ55" t="n">
         <v>69.95983315309748</v>
@@ -7924,13 +7933,13 @@
         <v>464</v>
       </c>
       <c r="AG56" t="s">
-        <v>519</v>
-      </c>
-      <c r="AH56" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI56" t="e">
-        <v>#N/A</v>
+        <v>521</v>
+      </c>
+      <c r="AH56" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI56" t="s">
+        <v>574</v>
       </c>
       <c r="AJ56" t="n">
         <v>92.33528412308854</v>
@@ -8034,13 +8043,13 @@
         <v>464</v>
       </c>
       <c r="AG57" t="s">
-        <v>520</v>
-      </c>
-      <c r="AH57" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI57" t="e">
-        <v>#N/A</v>
+        <v>522</v>
+      </c>
+      <c r="AH57" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI57" t="s">
+        <v>574</v>
       </c>
       <c r="AJ57" t="n">
         <v>73.25704598431871</v>
@@ -8144,13 +8153,13 @@
         <v>463</v>
       </c>
       <c r="AG58" t="s">
-        <v>521</v>
-      </c>
-      <c r="AH58" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI58" t="e">
-        <v>#N/A</v>
+        <v>523</v>
+      </c>
+      <c r="AH58" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI58" t="s">
+        <v>574</v>
       </c>
       <c r="AJ58" t="n">
         <v>6.444642176178975</v>
@@ -8254,13 +8263,13 @@
         <v>464</v>
       </c>
       <c r="AG59" t="s">
-        <v>522</v>
-      </c>
-      <c r="AH59" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI59" t="e">
-        <v>#N/A</v>
+        <v>524</v>
+      </c>
+      <c r="AH59" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI59" t="s">
+        <v>574</v>
       </c>
       <c r="AJ59" t="n">
         <v>96.66210982000456</v>
@@ -8364,13 +8373,13 @@
         <v>463</v>
       </c>
       <c r="AG60" t="s">
-        <v>523</v>
-      </c>
-      <c r="AH60" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI60" t="e">
-        <v>#N/A</v>
+        <v>525</v>
+      </c>
+      <c r="AH60" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI60" t="s">
+        <v>574</v>
       </c>
       <c r="AJ60" t="n">
         <v>6.376010643741685</v>
@@ -8474,13 +8483,13 @@
         <v>463</v>
       </c>
       <c r="AG61" t="s">
-        <v>524</v>
-      </c>
-      <c r="AH61" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI61" t="e">
-        <v>#N/A</v>
+        <v>526</v>
+      </c>
+      <c r="AH61" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI61" t="s">
+        <v>574</v>
       </c>
       <c r="AJ61" t="n">
         <v>43.5122838944495</v>
@@ -8584,13 +8593,13 @@
         <v>464</v>
       </c>
       <c r="AG62" t="s">
-        <v>525</v>
-      </c>
-      <c r="AH62" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI62" t="e">
-        <v>#N/A</v>
+        <v>527</v>
+      </c>
+      <c r="AH62" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI62" t="s">
+        <v>574</v>
       </c>
       <c r="AJ62" t="n">
         <v>55.638804339342855</v>
@@ -8694,13 +8703,13 @@
         <v>464</v>
       </c>
       <c r="AG63" t="s">
-        <v>526</v>
-      </c>
-      <c r="AH63" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI63" t="e">
-        <v>#N/A</v>
+        <v>528</v>
+      </c>
+      <c r="AH63" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI63" t="s">
+        <v>574</v>
       </c>
       <c r="AJ63" t="n">
         <v>83.09519710793596</v>
@@ -8804,13 +8813,13 @@
         <v>463</v>
       </c>
       <c r="AG64" t="s">
-        <v>527</v>
-      </c>
-      <c r="AH64" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI64" t="e">
-        <v>#N/A</v>
+        <v>529</v>
+      </c>
+      <c r="AH64" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI64" t="s">
+        <v>574</v>
       </c>
       <c r="AJ64" t="n">
         <v>33.14382298709281</v>
@@ -8914,13 +8923,13 @@
         <v>463</v>
       </c>
       <c r="AG65" t="s">
-        <v>528</v>
-      </c>
-      <c r="AH65" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI65" t="e">
-        <v>#N/A</v>
+        <v>530</v>
+      </c>
+      <c r="AH65" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI65" t="s">
+        <v>574</v>
       </c>
       <c r="AJ65" t="n">
         <v>36.864282214600685</v>
@@ -9024,13 +9033,13 @@
         <v>463</v>
       </c>
       <c r="AG66" t="s">
-        <v>529</v>
-      </c>
-      <c r="AH66" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI66" t="e">
-        <v>#N/A</v>
+        <v>531</v>
+      </c>
+      <c r="AH66" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI66" t="s">
+        <v>574</v>
       </c>
       <c r="AJ66" t="n">
         <v>7.617728531855955</v>
@@ -9134,13 +9143,13 @@
         <v>463</v>
       </c>
       <c r="AG67" t="s">
-        <v>530</v>
-      </c>
-      <c r="AH67" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI67" t="e">
-        <v>#N/A</v>
+        <v>532</v>
+      </c>
+      <c r="AH67" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI67" t="s">
+        <v>574</v>
       </c>
       <c r="AJ67" t="n">
         <v>45.63893165539862</v>
@@ -9244,13 +9253,13 @@
         <v>464</v>
       </c>
       <c r="AG68" t="s">
-        <v>531</v>
-      </c>
-      <c r="AH68" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI68" t="e">
-        <v>#N/A</v>
+        <v>533</v>
+      </c>
+      <c r="AH68" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI68" t="s">
+        <v>574</v>
       </c>
       <c r="AJ68" t="n">
         <v>56.89211949295275</v>
@@ -9354,13 +9363,13 @@
         <v>464</v>
       </c>
       <c r="AG69" t="s">
-        <v>532</v>
-      </c>
-      <c r="AH69" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI69" t="e">
-        <v>#N/A</v>
+        <v>534</v>
+      </c>
+      <c r="AH69" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI69" t="s">
+        <v>574</v>
       </c>
       <c r="AJ69" t="n">
         <v>58.42142353770261</v>
@@ -9464,13 +9473,13 @@
         <v>463</v>
       </c>
       <c r="AG70" t="s">
-        <v>533</v>
-      </c>
-      <c r="AH70" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI70" t="e">
-        <v>#N/A</v>
+        <v>535</v>
+      </c>
+      <c r="AH70" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI70" t="s">
+        <v>574</v>
       </c>
       <c r="AJ70" t="n">
         <v>29.238913610557006</v>
@@ -9574,13 +9583,13 @@
         <v>464</v>
       </c>
       <c r="AG71" t="s">
-        <v>534</v>
-      </c>
-      <c r="AH71" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI71" t="e">
-        <v>#N/A</v>
+        <v>536</v>
+      </c>
+      <c r="AH71" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI71" t="s">
+        <v>574</v>
       </c>
       <c r="AJ71" t="n">
         <v>71.8187186300561</v>
@@ -9684,13 +9693,13 @@
         <v>464</v>
       </c>
       <c r="AG72" t="s">
-        <v>535</v>
-      </c>
-      <c r="AH72" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI72" t="e">
-        <v>#N/A</v>
+        <v>537</v>
+      </c>
+      <c r="AH72" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI72" t="s">
+        <v>574</v>
       </c>
       <c r="AJ72" t="n">
         <v>54.378191649143886</v>
@@ -9794,13 +9803,13 @@
         <v>463</v>
       </c>
       <c r="AG73" t="s">
-        <v>536</v>
-      </c>
-      <c r="AH73" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI73" t="e">
-        <v>#N/A</v>
+        <v>538</v>
+      </c>
+      <c r="AH73" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI73" t="s">
+        <v>574</v>
       </c>
       <c r="AJ73" t="n">
         <v>43.07322321372065</v>
@@ -9904,13 +9913,13 @@
         <v>464</v>
       </c>
       <c r="AG74" t="s">
-        <v>537</v>
-      </c>
-      <c r="AH74" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI74" t="e">
-        <v>#N/A</v>
+        <v>539</v>
+      </c>
+      <c r="AH74" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI74" t="s">
+        <v>574</v>
       </c>
       <c r="AJ74" t="n">
         <v>74.44404804376263</v>
@@ -10014,13 +10023,13 @@
         <v>464</v>
       </c>
       <c r="AG75" t="s">
-        <v>538</v>
-      </c>
-      <c r="AH75" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI75" t="e">
-        <v>#N/A</v>
+        <v>540</v>
+      </c>
+      <c r="AH75" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI75" t="s">
+        <v>574</v>
       </c>
       <c r="AJ75" t="n">
         <v>73.94240044095356</v>
@@ -10124,13 +10133,13 @@
         <v>464</v>
       </c>
       <c r="AG76" t="s">
-        <v>539</v>
-      </c>
-      <c r="AH76" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI76" t="e">
-        <v>#N/A</v>
+        <v>541</v>
+      </c>
+      <c r="AH76" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI76" t="s">
+        <v>574</v>
       </c>
       <c r="AJ76" t="n">
         <v>62.54385964912281</v>
@@ -10234,13 +10243,13 @@
         <v>463</v>
       </c>
       <c r="AG77" t="s">
-        <v>540</v>
-      </c>
-      <c r="AH77" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI77" t="e">
-        <v>#N/A</v>
+        <v>542</v>
+      </c>
+      <c r="AH77" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI77" t="s">
+        <v>574</v>
       </c>
       <c r="AJ77" t="n">
         <v>30.18436690537864</v>
@@ -10344,13 +10353,13 @@
         <v>464</v>
       </c>
       <c r="AG78" t="s">
-        <v>541</v>
-      </c>
-      <c r="AH78" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI78" t="e">
-        <v>#N/A</v>
+        <v>543</v>
+      </c>
+      <c r="AH78" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI78" t="s">
+        <v>574</v>
       </c>
       <c r="AJ78" t="n">
         <v>51.75928970733312</v>
@@ -10454,13 +10463,13 @@
         <v>463</v>
       </c>
       <c r="AG79" t="s">
-        <v>542</v>
-      </c>
-      <c r="AH79" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI79" t="e">
-        <v>#N/A</v>
+        <v>544</v>
+      </c>
+      <c r="AH79" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI79" t="s">
+        <v>574</v>
       </c>
       <c r="AJ79" t="n">
         <v>41.97938793171269</v>
@@ -10564,13 +10573,13 @@
         <v>464</v>
       </c>
       <c r="AG80" t="s">
-        <v>543</v>
-      </c>
-      <c r="AH80" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI80" t="e">
-        <v>#N/A</v>
+        <v>545</v>
+      </c>
+      <c r="AH80" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI80" t="s">
+        <v>574</v>
       </c>
       <c r="AJ80" t="n">
         <v>92.98377970577141</v>
@@ -10674,13 +10683,13 @@
         <v>464</v>
       </c>
       <c r="AG81" t="s">
-        <v>544</v>
-      </c>
-      <c r="AH81" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI81" t="e">
-        <v>#N/A</v>
+        <v>546</v>
+      </c>
+      <c r="AH81" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI81" t="s">
+        <v>574</v>
       </c>
       <c r="AJ81" t="n">
         <v>57.87294896883938</v>
@@ -10784,13 +10793,13 @@
         <v>464</v>
       </c>
       <c r="AG82" t="s">
-        <v>545</v>
-      </c>
-      <c r="AH82" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI82" t="e">
-        <v>#N/A</v>
+        <v>547</v>
+      </c>
+      <c r="AH82" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI82" t="s">
+        <v>574</v>
       </c>
       <c r="AJ82" t="n">
         <v>66.58269217675495</v>
@@ -10894,13 +10903,13 @@
         <v>463</v>
       </c>
       <c r="AG83" t="s">
-        <v>546</v>
-      </c>
-      <c r="AH83" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI83" t="e">
-        <v>#N/A</v>
+        <v>548</v>
+      </c>
+      <c r="AH83" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI83" t="s">
+        <v>574</v>
       </c>
       <c r="AJ83" t="n">
         <v>39.81365863029488</v>
@@ -11004,13 +11013,13 @@
         <v>463</v>
       </c>
       <c r="AG84" t="s">
-        <v>547</v>
-      </c>
-      <c r="AH84" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI84" t="e">
-        <v>#N/A</v>
+        <v>549</v>
+      </c>
+      <c r="AH84" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI84" t="s">
+        <v>574</v>
       </c>
       <c r="AJ84" t="n">
         <v>31.958613703784096</v>
@@ -11114,13 +11123,13 @@
         <v>463</v>
       </c>
       <c r="AG85" t="s">
-        <v>548</v>
-      </c>
-      <c r="AH85" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI85" t="e">
-        <v>#N/A</v>
+        <v>550</v>
+      </c>
+      <c r="AH85" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI85" t="s">
+        <v>574</v>
       </c>
       <c r="AJ85" t="n">
         <v>40.42494733949995</v>
@@ -11215,22 +11224,22 @@
         <v>#N/A</v>
       </c>
       <c r="AD86" t="s">
-        <v>462</v>
+        <v>142</v>
       </c>
       <c r="AE86" t="s">
         <v>462</v>
       </c>
       <c r="AF86" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="AG86" t="s">
-        <v>549</v>
-      </c>
-      <c r="AH86" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI86" t="e">
-        <v>#N/A</v>
+        <v>551</v>
+      </c>
+      <c r="AH86" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI86" t="s">
+        <v>574</v>
       </c>
       <c r="AJ86" t="n">
         <v>99.83357108892059</v>
@@ -11334,13 +11343,13 @@
         <v>463</v>
       </c>
       <c r="AG87" t="s">
-        <v>550</v>
-      </c>
-      <c r="AH87" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI87" t="e">
-        <v>#N/A</v>
+        <v>552</v>
+      </c>
+      <c r="AH87" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI87" t="s">
+        <v>574</v>
       </c>
       <c r="AJ87" t="n">
         <v>3.356231599607458</v>
@@ -11444,13 +11453,13 @@
         <v>464</v>
       </c>
       <c r="AG88" t="s">
-        <v>551</v>
-      </c>
-      <c r="AH88" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI88" t="e">
-        <v>#N/A</v>
+        <v>553</v>
+      </c>
+      <c r="AH88" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI88" t="s">
+        <v>574</v>
       </c>
       <c r="AJ88" t="n">
         <v>97.22925101214575</v>
@@ -11554,13 +11563,13 @@
         <v>463</v>
       </c>
       <c r="AG89" t="s">
-        <v>552</v>
-      </c>
-      <c r="AH89" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI89" t="e">
-        <v>#N/A</v>
+        <v>554</v>
+      </c>
+      <c r="AH89" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI89" t="s">
+        <v>574</v>
       </c>
       <c r="AJ89" t="n">
         <v>30.744255744255746</v>
@@ -11664,13 +11673,13 @@
         <v>464</v>
       </c>
       <c r="AG90" t="s">
-        <v>553</v>
-      </c>
-      <c r="AH90" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI90" t="e">
-        <v>#N/A</v>
+        <v>555</v>
+      </c>
+      <c r="AH90" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI90" t="s">
+        <v>574</v>
       </c>
       <c r="AJ90" t="n">
         <v>95.46451240623196</v>
@@ -11774,13 +11783,13 @@
         <v>463</v>
       </c>
       <c r="AG91" t="s">
-        <v>554</v>
-      </c>
-      <c r="AH91" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI91" t="e">
-        <v>#N/A</v>
+        <v>556</v>
+      </c>
+      <c r="AH91" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI91" t="s">
+        <v>574</v>
       </c>
       <c r="AJ91" t="n">
         <v>32.29157648688425</v>
@@ -11884,13 +11893,13 @@
         <v>464</v>
       </c>
       <c r="AG92" t="s">
-        <v>555</v>
-      </c>
-      <c r="AH92" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI92" t="e">
-        <v>#N/A</v>
+        <v>557</v>
+      </c>
+      <c r="AH92" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI92" t="s">
+        <v>574</v>
       </c>
       <c r="AJ92" t="n">
         <v>50.22401433691756</v>
@@ -11994,13 +12003,13 @@
         <v>463</v>
       </c>
       <c r="AG93" t="s">
-        <v>556</v>
-      </c>
-      <c r="AH93" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI93" t="e">
-        <v>#N/A</v>
+        <v>558</v>
+      </c>
+      <c r="AH93" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI93" t="s">
+        <v>574</v>
       </c>
       <c r="AJ93" t="n">
         <v>7.191224268689058</v>
@@ -12104,13 +12113,13 @@
         <v>464</v>
       </c>
       <c r="AG94" t="s">
-        <v>557</v>
-      </c>
-      <c r="AH94" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI94" t="e">
-        <v>#N/A</v>
+        <v>559</v>
+      </c>
+      <c r="AH94" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI94" t="s">
+        <v>574</v>
       </c>
       <c r="AJ94" t="n">
         <v>55.648238530481855</v>
@@ -12214,13 +12223,13 @@
         <v>463</v>
       </c>
       <c r="AG95" t="s">
-        <v>558</v>
-      </c>
-      <c r="AH95" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI95" t="e">
-        <v>#N/A</v>
+        <v>560</v>
+      </c>
+      <c r="AH95" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI95" t="s">
+        <v>574</v>
       </c>
       <c r="AJ95" t="n">
         <v>10.848741367787927</v>
@@ -12324,13 +12333,13 @@
         <v>463</v>
       </c>
       <c r="AG96" t="s">
-        <v>559</v>
-      </c>
-      <c r="AH96" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI96" t="e">
-        <v>#N/A</v>
+        <v>561</v>
+      </c>
+      <c r="AH96" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI96" t="s">
+        <v>574</v>
       </c>
       <c r="AJ96" t="n">
         <v>25.0</v>
@@ -12434,13 +12443,13 @@
         <v>464</v>
       </c>
       <c r="AG97" t="s">
-        <v>560</v>
-      </c>
-      <c r="AH97" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI97" t="e">
-        <v>#N/A</v>
+        <v>562</v>
+      </c>
+      <c r="AH97" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI97" t="s">
+        <v>574</v>
       </c>
       <c r="AJ97" t="n">
         <v>54.58451890134138</v>
@@ -12544,13 +12553,13 @@
         <v>463</v>
       </c>
       <c r="AG98" t="s">
-        <v>561</v>
-      </c>
-      <c r="AH98" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI98" t="e">
-        <v>#N/A</v>
+        <v>563</v>
+      </c>
+      <c r="AH98" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI98" t="s">
+        <v>574</v>
       </c>
       <c r="AJ98" t="n">
         <v>40.81669364993704</v>
@@ -12654,13 +12663,13 @@
         <v>463</v>
       </c>
       <c r="AG99" t="s">
-        <v>562</v>
-      </c>
-      <c r="AH99" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI99" t="e">
-        <v>#N/A</v>
+        <v>564</v>
+      </c>
+      <c r="AH99" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI99" t="s">
+        <v>574</v>
       </c>
       <c r="AJ99" t="n">
         <v>43.676086144653304</v>
@@ -12764,13 +12773,13 @@
         <v>463</v>
       </c>
       <c r="AG100" t="s">
-        <v>563</v>
-      </c>
-      <c r="AH100" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI100" t="e">
-        <v>#N/A</v>
+        <v>565</v>
+      </c>
+      <c r="AH100" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI100" t="s">
+        <v>574</v>
       </c>
       <c r="AJ100" t="n">
         <v>11.08533554266777</v>
@@ -12874,13 +12883,13 @@
         <v>463</v>
       </c>
       <c r="AG101" t="s">
-        <v>564</v>
-      </c>
-      <c r="AH101" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI101" t="e">
-        <v>#N/A</v>
+        <v>566</v>
+      </c>
+      <c r="AH101" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI101" t="s">
+        <v>574</v>
       </c>
       <c r="AJ101" t="n">
         <v>37.02347891946478</v>
@@ -12984,13 +12993,13 @@
         <v>464</v>
       </c>
       <c r="AG102" t="s">
-        <v>565</v>
-      </c>
-      <c r="AH102" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI102" t="e">
-        <v>#N/A</v>
+        <v>567</v>
+      </c>
+      <c r="AH102" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI102" t="s">
+        <v>574</v>
       </c>
       <c r="AJ102" t="n">
         <v>58.591831165287</v>
@@ -13094,13 +13103,13 @@
         <v>464</v>
       </c>
       <c r="AG103" t="s">
-        <v>566</v>
-      </c>
-      <c r="AH103" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI103" t="e">
-        <v>#N/A</v>
+        <v>568</v>
+      </c>
+      <c r="AH103" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI103" t="s">
+        <v>574</v>
       </c>
       <c r="AJ103" t="n">
         <v>70.76267646813132</v>
@@ -13204,13 +13213,13 @@
         <v>463</v>
       </c>
       <c r="AG104" t="s">
-        <v>567</v>
-      </c>
-      <c r="AH104" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI104" t="e">
-        <v>#N/A</v>
+        <v>569</v>
+      </c>
+      <c r="AH104" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI104" t="s">
+        <v>574</v>
       </c>
       <c r="AJ104" t="n">
         <v>27.8653012997243</v>
@@ -13314,13 +13323,13 @@
         <v>464</v>
       </c>
       <c r="AG105" t="s">
-        <v>568</v>
-      </c>
-      <c r="AH105" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI105" t="e">
-        <v>#N/A</v>
+        <v>570</v>
+      </c>
+      <c r="AH105" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI105" t="s">
+        <v>574</v>
       </c>
       <c r="AJ105" t="n">
         <v>61.58940397350993</v>
@@ -13424,13 +13433,13 @@
         <v>463</v>
       </c>
       <c r="AG106" t="s">
-        <v>569</v>
-      </c>
-      <c r="AH106" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI106" t="e">
-        <v>#N/A</v>
+        <v>571</v>
+      </c>
+      <c r="AH106" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI106" t="s">
+        <v>574</v>
       </c>
       <c r="AJ106" t="n">
         <v>18.573365314422777</v>
@@ -13534,13 +13543,13 @@
         <v>464</v>
       </c>
       <c r="AG107" t="s">
-        <v>570</v>
-      </c>
-      <c r="AH107" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI107" t="e">
-        <v>#N/A</v>
+        <v>572</v>
+      </c>
+      <c r="AH107" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI107" t="s">
+        <v>574</v>
       </c>
       <c r="AJ107" t="n">
         <v>60.76171875</v>
@@ -13644,13 +13653,13 @@
         <v>464</v>
       </c>
       <c r="AG108" t="s">
-        <v>571</v>
-      </c>
-      <c r="AH108" t="e">
-        <v>#N/A</v>
-      </c>
-      <c r="AI108" t="e">
-        <v>#N/A</v>
+        <v>573</v>
+      </c>
+      <c r="AH108" t="s">
+        <v>574</v>
+      </c>
+      <c r="AI108" t="s">
+        <v>574</v>
       </c>
       <c r="AJ108" t="n">
         <v>98.04084171244946</v>
